--- a/excel/1mo/three_line_alerts_1mo.xlsx
+++ b/excel/1mo/three_line_alerts_1mo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,6 +889,2466 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>COALINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>386.25</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+      <c r="I8" t="n">
+        <v>423.7000122070312</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="K8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L8" t="n">
+        <v>447.1000061035156</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>1.783333914620536</v>
+      </c>
+      <c r="O8" t="n">
+        <v>348.7999877929688</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DIVISLAB.NS</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>159</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>38047</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>102.4000015258789</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="H9" t="n">
+        <v>57</v>
+      </c>
+      <c r="I9" t="n">
+        <v>482.4874877929688</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="K9" t="n">
+        <v>148</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1242.349975585938</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>8.26277144058891</v>
+      </c>
+      <c r="O9" t="n">
+        <v>11.50951567940086</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="C10" t="n">
+        <v>200</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>36465</v>
+      </c>
+      <c r="E10" t="n">
+        <v>46</v>
+      </c>
+      <c r="F10" t="n">
+        <v>109.4749984741211</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="H10" t="n">
+        <v>178</v>
+      </c>
+      <c r="I10" t="n">
+        <v>413.3500061035156</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>40817</v>
+      </c>
+      <c r="K10" t="n">
+        <v>189</v>
+      </c>
+      <c r="L10" t="n">
+        <v>438.6499938964844</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>2.302083391131777</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.57916248205936</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="C11" t="n">
+        <v>245</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>37987</v>
+      </c>
+      <c r="E11" t="n">
+        <v>96</v>
+      </c>
+      <c r="F11" t="n">
+        <v>27.48999977111816</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="H11" t="n">
+        <v>114</v>
+      </c>
+      <c r="I11" t="n">
+        <v>305.0499877929688</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="K11" t="n">
+        <v>234</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2162</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>15.41999933454725</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-1452.829936345418</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="C12" t="n">
+        <v>191</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="E12" t="n">
+        <v>123</v>
+      </c>
+      <c r="F12" t="n">
+        <v>304</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>40148</v>
+      </c>
+      <c r="H12" t="n">
+        <v>167</v>
+      </c>
+      <c r="I12" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="K12" t="n">
+        <v>180</v>
+      </c>
+      <c r="L12" t="n">
+        <v>381</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1.352272727272727</v>
+      </c>
+      <c r="O12" t="n">
+        <v>137.6704545454545</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO.NS</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C13" t="n">
+        <v>259</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>41365</v>
+      </c>
+      <c r="E13" t="n">
+        <v>129</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1435</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="H13" t="n">
+        <v>236</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2146.85009765625</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="K13" t="n">
+        <v>248</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2246</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>6.652804650992991</v>
+      </c>
+      <c r="O13" t="n">
+        <v>576.7882000219042</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C14" t="n">
+        <v>221</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>39142</v>
+      </c>
+      <c r="E14" t="n">
+        <v>133</v>
+      </c>
+      <c r="F14" t="n">
+        <v>46.97499847412109</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="H14" t="n">
+        <v>191</v>
+      </c>
+      <c r="I14" t="n">
+        <v>76.34166717529297</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="K14" t="n">
+        <v>210</v>
+      </c>
+      <c r="L14" t="n">
+        <v>85.31666564941406</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5063218741581358</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-20.36581078891096</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="C15" t="n">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>38991</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38</v>
+      </c>
+      <c r="F15" t="n">
+        <v>990.7000122070312</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1248</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="K15" t="n">
+        <v>73</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1737.300048828125</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>21.44166564941406</v>
+      </c>
+      <c r="O15" t="n">
+        <v>175.9167175292969</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="C16" t="n">
+        <v>163</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>40238</v>
+      </c>
+      <c r="E16" t="n">
+        <v>92</v>
+      </c>
+      <c r="F16" t="n">
+        <v>461.0576171875</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="H16" t="n">
+        <v>123</v>
+      </c>
+      <c r="I16" t="n">
+        <v>541.6038208007812</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="K16" t="n">
+        <v>152</v>
+      </c>
+      <c r="L16" t="n">
+        <v>621.0467529296875</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>2.598264632686492</v>
+      </c>
+      <c r="O16" t="n">
+        <v>222.0172709803427</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="C17" t="n">
+        <v>206</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>37987</v>
+      </c>
+      <c r="E17" t="n">
+        <v>61</v>
+      </c>
+      <c r="F17" t="n">
+        <v>35.86000061035156</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="H17" t="n">
+        <v>109</v>
+      </c>
+      <c r="I17" t="n">
+        <v>258.2999877929688</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="K17" t="n">
+        <v>195</v>
+      </c>
+      <c r="L17" t="n">
+        <v>654.9000244140625</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>4.634166399637858</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-246.8241497675578</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="C18" t="n">
+        <v>188</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="E18" t="n">
+        <v>45</v>
+      </c>
+      <c r="F18" t="n">
+        <v>66.84999847412109</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>38749</v>
+      </c>
+      <c r="H18" t="n">
+        <v>121</v>
+      </c>
+      <c r="I18" t="n">
+        <v>107.8000030517578</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="K18" t="n">
+        <v>177</v>
+      </c>
+      <c r="L18" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5388158497057463</v>
+      </c>
+      <c r="O18" t="n">
+        <v>42.60328523736251</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="C19" t="n">
+        <v>256</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>37681</v>
+      </c>
+      <c r="E19" t="n">
+        <v>86</v>
+      </c>
+      <c r="F19" t="n">
+        <v>139.6499938964844</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="H19" t="n">
+        <v>180</v>
+      </c>
+      <c r="I19" t="n">
+        <v>437.375</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="K19" t="n">
+        <v>245</v>
+      </c>
+      <c r="L19" t="n">
+        <v>639.6500244140625</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.16728729897357</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-132.7367138152426</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C20" t="n">
+        <v>245</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="E20" t="n">
+        <v>123</v>
+      </c>
+      <c r="F20" t="n">
+        <v>541.6038208007812</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="H20" t="n">
+        <v>184</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1294.851440429688</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="K20" t="n">
+        <v>234</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1922.157104492188</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>12.34832163326076</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-977.2397400902919</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="C21" t="n">
+        <v>232</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>38838</v>
+      </c>
+      <c r="E21" t="n">
+        <v>124</v>
+      </c>
+      <c r="F21" t="n">
+        <v>168.2111053466797</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="H21" t="n">
+        <v>176</v>
+      </c>
+      <c r="I21" t="n">
+        <v>245.4333343505859</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="K21" t="n">
+        <v>221</v>
+      </c>
+      <c r="L21" t="n">
+        <v>314.5666809082031</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>1.485042865459736</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-15.93420997032754</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="C22" t="n">
+        <v>232</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>39203</v>
+      </c>
+      <c r="E22" t="n">
+        <v>136</v>
+      </c>
+      <c r="F22" t="n">
+        <v>102.1500015258789</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="H22" t="n">
+        <v>177</v>
+      </c>
+      <c r="I22" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="K22" t="n">
+        <v>221</v>
+      </c>
+      <c r="L22" t="n">
+        <v>177.1499938964844</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0.8926828896127096</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-19.2548714614496</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C23" t="n">
+        <v>238</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="E23" t="n">
+        <v>99</v>
+      </c>
+      <c r="F23" t="n">
+        <v>146.4666595458984</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="H23" t="n">
+        <v>181</v>
+      </c>
+      <c r="I23" t="n">
+        <v>601.6666870117188</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="K23" t="n">
+        <v>227</v>
+      </c>
+      <c r="L23" t="n">
+        <v>864.7000122070312</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>5.55121984714415</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-403.1041053213725</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>37288</v>
+      </c>
+      <c r="C24" t="n">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>35796</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.602308034896851</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>36923</v>
+      </c>
+      <c r="H24" t="n">
+        <v>57</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>36951</v>
+      </c>
+      <c r="K24" t="n">
+        <v>58</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0.01311721672882905</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.33996370032027</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>37316</v>
+      </c>
+      <c r="C25" t="n">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>35796</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.602308034896851</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>36951</v>
+      </c>
+      <c r="H25" t="n">
+        <v>58</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>36982</v>
+      </c>
+      <c r="K25" t="n">
+        <v>59</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0127720268149125</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.346867498598601</v>
+      </c>
+      <c r="P25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="C26" t="n">
+        <v>173</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="E26" t="n">
+        <v>78</v>
+      </c>
+      <c r="F26" t="n">
+        <v>167.5887298583984</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="H26" t="n">
+        <v>114</v>
+      </c>
+      <c r="I26" t="n">
+        <v>405.6719055175781</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="K26" t="n">
+        <v>162</v>
+      </c>
+      <c r="L26" t="n">
+        <v>718.0494995117188</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>6.613421546088325</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-348.2581507364908</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>40969</v>
+      </c>
+      <c r="C27" t="n">
+        <v>142</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>37347</v>
+      </c>
+      <c r="E27" t="n">
+        <v>23</v>
+      </c>
+      <c r="F27" t="n">
+        <v>18.22681999206543</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>38838</v>
+      </c>
+      <c r="H27" t="n">
+        <v>72</v>
+      </c>
+      <c r="I27" t="n">
+        <v>98.73372650146484</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="K27" t="n">
+        <v>131</v>
+      </c>
+      <c r="L27" t="n">
+        <v>197.3600006103516</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>1.642998092028559</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-19.56213612459143</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="C28" t="n">
+        <v>174</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>38261</v>
+      </c>
+      <c r="E28" t="n">
+        <v>27</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.345333099365234</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H28" t="n">
+        <v>133</v>
+      </c>
+      <c r="I28" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="K28" t="n">
+        <v>163</v>
+      </c>
+      <c r="L28" t="n">
+        <v>185</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>1.324572329251271</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-29.4181197904191</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="C29" t="n">
+        <v>204</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="E29" t="n">
+        <v>98</v>
+      </c>
+      <c r="F29" t="n">
+        <v>36.69642639160156</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H29" t="n">
+        <v>170</v>
+      </c>
+      <c r="I29" t="n">
+        <v>230.6666717529297</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="K29" t="n">
+        <v>193</v>
+      </c>
+      <c r="L29" t="n">
+        <v>291.5833435058594</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>2.694031185574002</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-227.3186297946506</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C30" t="n">
+        <v>224</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E30" t="n">
+        <v>113</v>
+      </c>
+      <c r="F30" t="n">
+        <v>21.31999969482422</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H30" t="n">
+        <v>133</v>
+      </c>
+      <c r="I30" t="n">
+        <v>40.40000152587891</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="K30" t="n">
+        <v>213</v>
+      </c>
+      <c r="L30" t="n">
+        <v>117.4000015258789</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0.9540000915527344</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-86.48201065063476</v>
+      </c>
+      <c r="P30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="C31" t="n">
+        <v>212</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="E31" t="n">
+        <v>142</v>
+      </c>
+      <c r="F31" t="n">
+        <v>39.29999923706055</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="H31" t="n">
+        <v>178</v>
+      </c>
+      <c r="I31" t="n">
+        <v>50.09999847412109</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="K31" t="n">
+        <v>201</v>
+      </c>
+      <c r="L31" t="n">
+        <v>57.09999847412109</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2999999788072374</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-3.299997753567162</v>
+      </c>
+      <c r="P31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C32" t="n">
+        <v>285</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="E32" t="n">
+        <v>195</v>
+      </c>
+      <c r="F32" t="n">
+        <v>51.03752517700195</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="H32" t="n">
+        <v>219</v>
+      </c>
+      <c r="I32" t="n">
+        <v>48.7593994140625</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="K32" t="n">
+        <v>274</v>
+      </c>
+      <c r="L32" t="n">
+        <v>43.33333206176758</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.09492190678914388</v>
+      </c>
+      <c r="O32" t="n">
+        <v>69.54729700088501</v>
+      </c>
+      <c r="P32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="C33" t="n">
+        <v>179</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>37987</v>
+      </c>
+      <c r="E33" t="n">
+        <v>18</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16.29999923706055</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="H33" t="n">
+        <v>167</v>
+      </c>
+      <c r="I33" t="n">
+        <v>320</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="K33" t="n">
+        <v>168</v>
+      </c>
+      <c r="L33" t="n">
+        <v>320</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>2.038255038677446</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-20.38859145913349</v>
+      </c>
+      <c r="P33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="C34" t="n">
+        <v>179</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="E34" t="n">
+        <v>64</v>
+      </c>
+      <c r="F34" t="n">
+        <v>66.57499694824219</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="H34" t="n">
+        <v>167</v>
+      </c>
+      <c r="I34" t="n">
+        <v>320</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="K34" t="n">
+        <v>168</v>
+      </c>
+      <c r="L34" t="n">
+        <v>320</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>2.4604369228326</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-90.89296611304422</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="C35" t="n">
+        <v>160</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E35" t="n">
+        <v>121</v>
+      </c>
+      <c r="F35" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="H35" t="n">
+        <v>146</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="K35" t="n">
+        <v>149</v>
+      </c>
+      <c r="L35" t="n">
+        <v>25</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="O35" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="P35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C36" t="n">
+        <v>161</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="E36" t="n">
+        <v>67</v>
+      </c>
+      <c r="F36" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H36" t="n">
+        <v>125</v>
+      </c>
+      <c r="I36" t="n">
+        <v>273.8500061035156</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="K36" t="n">
+        <v>150</v>
+      </c>
+      <c r="L36" t="n">
+        <v>266.5499877929688</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.2655171361462823</v>
+      </c>
+      <c r="O36" t="n">
+        <v>307.0396481218009</v>
+      </c>
+      <c r="P36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C37" t="n">
+        <v>216</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>40269</v>
+      </c>
+      <c r="E37" t="n">
+        <v>91</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2373.35009765625</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="H37" t="n">
+        <v>190</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11337</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="K37" t="n">
+        <v>205</v>
+      </c>
+      <c r="L37" t="n">
+        <v>12774.900390625</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>90.54191820549242</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-5865.96445904356</v>
+      </c>
+      <c r="P37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C38" t="n">
+        <v>216</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E38" t="n">
+        <v>150</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7449</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="H38" t="n">
+        <v>190</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11337</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="K38" t="n">
+        <v>205</v>
+      </c>
+      <c r="L38" t="n">
+        <v>12774.900390625</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-7131</v>
+      </c>
+      <c r="P38" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C39" t="n">
+        <v>223</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="E39" t="n">
+        <v>77</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.131764888763428</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>40848</v>
+      </c>
+      <c r="H39" t="n">
+        <v>112</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.72180700302124</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="K39" t="n">
+        <v>212</v>
+      </c>
+      <c r="L39" t="n">
+        <v>19.9379940032959</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0.1311440604073661</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-7.966327762603759</v>
+      </c>
+      <c r="P39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C40" t="n">
+        <v>261</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="E40" t="n">
+        <v>173</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9399.9501953125</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="H40" t="n">
+        <v>206</v>
+      </c>
+      <c r="I40" t="n">
+        <v>13100</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="K40" t="n">
+        <v>250</v>
+      </c>
+      <c r="L40" t="n">
+        <v>17865.19921875</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>112.1227213541667</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-9997.280598958336</v>
+      </c>
+      <c r="P40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TRENT.NS</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>42309</v>
+      </c>
+      <c r="C41" t="n">
+        <v>160</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>39417</v>
+      </c>
+      <c r="E41" t="n">
+        <v>65</v>
+      </c>
+      <c r="F41" t="n">
+        <v>69.74099731445312</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>41275</v>
+      </c>
+      <c r="H41" t="n">
+        <v>126</v>
+      </c>
+      <c r="I41" t="n">
+        <v>135.8999938964844</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="K41" t="n">
+        <v>149</v>
+      </c>
+      <c r="L41" t="n">
+        <v>159.6000061035156</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1.084573714459529</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.7562941254162325</v>
+      </c>
+      <c r="P41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="C42" t="n">
+        <v>204</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E42" t="n">
+        <v>152</v>
+      </c>
+      <c r="F42" t="n">
+        <v>27990</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="H42" t="n">
+        <v>169</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25670.849609375</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="K42" t="n">
+        <v>193</v>
+      </c>
+      <c r="L42" t="n">
+        <v>22400</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>-136.4206112132353</v>
+      </c>
+      <c r="O42" t="n">
+        <v>48725.93290441176</v>
+      </c>
+      <c r="P42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C43" t="n">
+        <v>206</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="E43" t="n">
+        <v>72</v>
+      </c>
+      <c r="F43" t="n">
+        <v>171.1499938964844</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H43" t="n">
+        <v>133</v>
+      </c>
+      <c r="I43" t="n">
+        <v>595</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="K43" t="n">
+        <v>195</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1018.299987792969</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>6.948360755795338</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-329.13198052078</v>
+      </c>
+      <c r="P43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C44" t="n">
+        <v>219</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="E44" t="n">
+        <v>66</v>
+      </c>
+      <c r="F44" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="H44" t="n">
+        <v>153</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1099</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="K44" t="n">
+        <v>208</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1642.599975585938</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>9.615517101068606</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-372.1741164634968</v>
+      </c>
+      <c r="P44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C45" t="n">
+        <v>223</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="E45" t="n">
+        <v>133</v>
+      </c>
+      <c r="F45" t="n">
+        <v>595</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="H45" t="n">
+        <v>166</v>
+      </c>
+      <c r="I45" t="n">
+        <v>787.2000122070312</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="K45" t="n">
+        <v>212</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1065</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>5.824242794152462</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-179.6242916222774</v>
+      </c>
+      <c r="P45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C46" t="n">
+        <v>239</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="E46" t="n">
+        <v>66</v>
+      </c>
+      <c r="F46" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="H46" t="n">
+        <v>153</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1099</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="K46" t="n">
+        <v>228</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1823.400024414062</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>9.615517101068606</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-372.1741164634968</v>
+      </c>
+      <c r="P46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C47" t="n">
+        <v>239</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="E47" t="n">
+        <v>66</v>
+      </c>
+      <c r="F47" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H47" t="n">
+        <v>208</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1642.599975585938</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="K47" t="n">
+        <v>228</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1823.400024414062</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>9.719365939288073</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-379.0281397859817</v>
+      </c>
+      <c r="P47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C48" t="n">
+        <v>239</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="E48" t="n">
+        <v>153</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1099</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H48" t="n">
+        <v>208</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1642.599975585938</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="K48" t="n">
+        <v>228</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1823.400024414062</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>9.883635919744318</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-413.1962957208807</v>
+      </c>
+      <c r="P48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/three_line_alerts_1mo.xlsx
+++ b/excel/1mo/three_line_alerts_1mo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,6 +889,2466 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>COALINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>386.25</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+      <c r="I8" t="n">
+        <v>423.7000122070312</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="K8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L8" t="n">
+        <v>447.1000061035156</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>1.783333914620536</v>
+      </c>
+      <c r="O8" t="n">
+        <v>348.7999877929688</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DIVISLAB.NS</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>159</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>38047</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>102.4000015258789</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="H9" t="n">
+        <v>57</v>
+      </c>
+      <c r="I9" t="n">
+        <v>482.4874877929688</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="K9" t="n">
+        <v>148</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1242.349975585938</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>8.26277144058891</v>
+      </c>
+      <c r="O9" t="n">
+        <v>11.50951567940086</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="C10" t="n">
+        <v>200</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>36465</v>
+      </c>
+      <c r="E10" t="n">
+        <v>46</v>
+      </c>
+      <c r="F10" t="n">
+        <v>109.4749984741211</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="H10" t="n">
+        <v>178</v>
+      </c>
+      <c r="I10" t="n">
+        <v>413.3500061035156</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>40817</v>
+      </c>
+      <c r="K10" t="n">
+        <v>189</v>
+      </c>
+      <c r="L10" t="n">
+        <v>438.6499938964844</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>2.302083391131777</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.57916248205936</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="C11" t="n">
+        <v>191</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="E11" t="n">
+        <v>123</v>
+      </c>
+      <c r="F11" t="n">
+        <v>304</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>40148</v>
+      </c>
+      <c r="H11" t="n">
+        <v>167</v>
+      </c>
+      <c r="I11" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="K11" t="n">
+        <v>180</v>
+      </c>
+      <c r="L11" t="n">
+        <v>381</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>1.352272727272727</v>
+      </c>
+      <c r="O11" t="n">
+        <v>137.6704545454545</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="C12" t="n">
+        <v>245</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>37987</v>
+      </c>
+      <c r="E12" t="n">
+        <v>96</v>
+      </c>
+      <c r="F12" t="n">
+        <v>27.48999977111816</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="H12" t="n">
+        <v>114</v>
+      </c>
+      <c r="I12" t="n">
+        <v>305.0499877929688</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="K12" t="n">
+        <v>234</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2162</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>15.41999933454725</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-1452.829936345418</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO.NS</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C13" t="n">
+        <v>259</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>41365</v>
+      </c>
+      <c r="E13" t="n">
+        <v>129</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1435</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="H13" t="n">
+        <v>236</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2146.85009765625</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="K13" t="n">
+        <v>248</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2246</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>6.652804650992991</v>
+      </c>
+      <c r="O13" t="n">
+        <v>576.7882000219042</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C14" t="n">
+        <v>221</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>39142</v>
+      </c>
+      <c r="E14" t="n">
+        <v>133</v>
+      </c>
+      <c r="F14" t="n">
+        <v>46.97499847412109</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="H14" t="n">
+        <v>191</v>
+      </c>
+      <c r="I14" t="n">
+        <v>76.34166717529297</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="K14" t="n">
+        <v>210</v>
+      </c>
+      <c r="L14" t="n">
+        <v>85.31666564941406</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5063218741581358</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-20.36581078891096</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="C15" t="n">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>38991</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38</v>
+      </c>
+      <c r="F15" t="n">
+        <v>990.7000122070312</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1248</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="K15" t="n">
+        <v>73</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1737.300048828125</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>21.44166564941406</v>
+      </c>
+      <c r="O15" t="n">
+        <v>175.9167175292969</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="C16" t="n">
+        <v>163</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>40238</v>
+      </c>
+      <c r="E16" t="n">
+        <v>92</v>
+      </c>
+      <c r="F16" t="n">
+        <v>461.0576171875</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="H16" t="n">
+        <v>123</v>
+      </c>
+      <c r="I16" t="n">
+        <v>541.6038208007812</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="K16" t="n">
+        <v>152</v>
+      </c>
+      <c r="L16" t="n">
+        <v>621.0467529296875</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>2.598264632686492</v>
+      </c>
+      <c r="O16" t="n">
+        <v>222.0172709803427</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="C17" t="n">
+        <v>188</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="E17" t="n">
+        <v>45</v>
+      </c>
+      <c r="F17" t="n">
+        <v>66.84999847412109</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>38749</v>
+      </c>
+      <c r="H17" t="n">
+        <v>121</v>
+      </c>
+      <c r="I17" t="n">
+        <v>107.8000030517578</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="K17" t="n">
+        <v>177</v>
+      </c>
+      <c r="L17" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5388158497057463</v>
+      </c>
+      <c r="O17" t="n">
+        <v>42.60328523736251</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="C18" t="n">
+        <v>206</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>37987</v>
+      </c>
+      <c r="E18" t="n">
+        <v>61</v>
+      </c>
+      <c r="F18" t="n">
+        <v>35.86000061035156</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="H18" t="n">
+        <v>109</v>
+      </c>
+      <c r="I18" t="n">
+        <v>258.2999877929688</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="K18" t="n">
+        <v>195</v>
+      </c>
+      <c r="L18" t="n">
+        <v>654.9000244140625</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>4.634166399637858</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-246.8241497675578</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C19" t="n">
+        <v>245</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="E19" t="n">
+        <v>123</v>
+      </c>
+      <c r="F19" t="n">
+        <v>541.6038208007812</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="H19" t="n">
+        <v>184</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1294.851440429688</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="K19" t="n">
+        <v>234</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1922.157104492188</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>12.34832163326076</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-977.2397400902919</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="C20" t="n">
+        <v>232</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>39203</v>
+      </c>
+      <c r="E20" t="n">
+        <v>136</v>
+      </c>
+      <c r="F20" t="n">
+        <v>102.1500015258789</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="H20" t="n">
+        <v>177</v>
+      </c>
+      <c r="I20" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="K20" t="n">
+        <v>221</v>
+      </c>
+      <c r="L20" t="n">
+        <v>177.1499938964844</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8926828896127096</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-19.2548714614496</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="C21" t="n">
+        <v>256</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>37681</v>
+      </c>
+      <c r="E21" t="n">
+        <v>86</v>
+      </c>
+      <c r="F21" t="n">
+        <v>139.6499938964844</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="H21" t="n">
+        <v>180</v>
+      </c>
+      <c r="I21" t="n">
+        <v>437.375</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="K21" t="n">
+        <v>245</v>
+      </c>
+      <c r="L21" t="n">
+        <v>639.6500244140625</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.16728729897357</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-132.7367138152426</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C22" t="n">
+        <v>238</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="E22" t="n">
+        <v>99</v>
+      </c>
+      <c r="F22" t="n">
+        <v>146.4666595458984</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="H22" t="n">
+        <v>181</v>
+      </c>
+      <c r="I22" t="n">
+        <v>601.6666870117188</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="K22" t="n">
+        <v>227</v>
+      </c>
+      <c r="L22" t="n">
+        <v>864.7000122070312</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>5.55121984714415</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-403.1041053213725</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="C23" t="n">
+        <v>232</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>38838</v>
+      </c>
+      <c r="E23" t="n">
+        <v>124</v>
+      </c>
+      <c r="F23" t="n">
+        <v>168.2111053466797</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="H23" t="n">
+        <v>176</v>
+      </c>
+      <c r="I23" t="n">
+        <v>245.4333343505859</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="K23" t="n">
+        <v>221</v>
+      </c>
+      <c r="L23" t="n">
+        <v>314.5666809082031</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>1.485042865459736</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-15.93420997032754</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>37288</v>
+      </c>
+      <c r="C24" t="n">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>35796</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.602308034896851</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>36923</v>
+      </c>
+      <c r="H24" t="n">
+        <v>57</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>36951</v>
+      </c>
+      <c r="K24" t="n">
+        <v>58</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0.01311721672882905</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.33996370032027</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>37316</v>
+      </c>
+      <c r="C25" t="n">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>35796</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.602308034896851</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>36951</v>
+      </c>
+      <c r="H25" t="n">
+        <v>58</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>36982</v>
+      </c>
+      <c r="K25" t="n">
+        <v>59</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0127720268149125</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.346867498598601</v>
+      </c>
+      <c r="P25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="C26" t="n">
+        <v>174</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>38261</v>
+      </c>
+      <c r="E26" t="n">
+        <v>27</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.345333099365234</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H26" t="n">
+        <v>133</v>
+      </c>
+      <c r="I26" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="K26" t="n">
+        <v>163</v>
+      </c>
+      <c r="L26" t="n">
+        <v>185</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>1.324572329251271</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-29.4181197904191</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>40969</v>
+      </c>
+      <c r="C27" t="n">
+        <v>142</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>37347</v>
+      </c>
+      <c r="E27" t="n">
+        <v>23</v>
+      </c>
+      <c r="F27" t="n">
+        <v>18.22681999206543</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>38838</v>
+      </c>
+      <c r="H27" t="n">
+        <v>72</v>
+      </c>
+      <c r="I27" t="n">
+        <v>98.73372650146484</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="K27" t="n">
+        <v>131</v>
+      </c>
+      <c r="L27" t="n">
+        <v>197.3600006103516</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>1.642998092028559</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-19.56213612459143</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="C28" t="n">
+        <v>173</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="E28" t="n">
+        <v>78</v>
+      </c>
+      <c r="F28" t="n">
+        <v>167.5887298583984</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="H28" t="n">
+        <v>114</v>
+      </c>
+      <c r="I28" t="n">
+        <v>405.6719055175781</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="K28" t="n">
+        <v>162</v>
+      </c>
+      <c r="L28" t="n">
+        <v>718.0494995117188</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>6.613421546088325</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-348.2581507364908</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="C29" t="n">
+        <v>204</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="E29" t="n">
+        <v>98</v>
+      </c>
+      <c r="F29" t="n">
+        <v>36.69642639160156</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H29" t="n">
+        <v>170</v>
+      </c>
+      <c r="I29" t="n">
+        <v>230.6666717529297</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="K29" t="n">
+        <v>193</v>
+      </c>
+      <c r="L29" t="n">
+        <v>291.5833435058594</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>2.694031185574002</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-227.3186297946506</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C30" t="n">
+        <v>224</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E30" t="n">
+        <v>113</v>
+      </c>
+      <c r="F30" t="n">
+        <v>21.31999969482422</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H30" t="n">
+        <v>133</v>
+      </c>
+      <c r="I30" t="n">
+        <v>40.40000152587891</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="K30" t="n">
+        <v>213</v>
+      </c>
+      <c r="L30" t="n">
+        <v>117.4000015258789</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0.9540000915527344</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-86.48201065063476</v>
+      </c>
+      <c r="P30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="C31" t="n">
+        <v>212</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="E31" t="n">
+        <v>142</v>
+      </c>
+      <c r="F31" t="n">
+        <v>39.29999923706055</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="H31" t="n">
+        <v>178</v>
+      </c>
+      <c r="I31" t="n">
+        <v>50.09999847412109</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="K31" t="n">
+        <v>201</v>
+      </c>
+      <c r="L31" t="n">
+        <v>57.09999847412109</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2999999788072374</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-3.299997753567162</v>
+      </c>
+      <c r="P31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C32" t="n">
+        <v>285</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="E32" t="n">
+        <v>195</v>
+      </c>
+      <c r="F32" t="n">
+        <v>51.03752517700195</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="H32" t="n">
+        <v>219</v>
+      </c>
+      <c r="I32" t="n">
+        <v>48.7593994140625</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="K32" t="n">
+        <v>274</v>
+      </c>
+      <c r="L32" t="n">
+        <v>43.33333206176758</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.09492190678914388</v>
+      </c>
+      <c r="O32" t="n">
+        <v>69.54729700088501</v>
+      </c>
+      <c r="P32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C33" t="n">
+        <v>161</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="E33" t="n">
+        <v>67</v>
+      </c>
+      <c r="F33" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H33" t="n">
+        <v>125</v>
+      </c>
+      <c r="I33" t="n">
+        <v>273.8500061035156</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="K33" t="n">
+        <v>150</v>
+      </c>
+      <c r="L33" t="n">
+        <v>266.5499877929688</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.2655171361462823</v>
+      </c>
+      <c r="O33" t="n">
+        <v>307.0396481218009</v>
+      </c>
+      <c r="P33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="C34" t="n">
+        <v>160</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E34" t="n">
+        <v>121</v>
+      </c>
+      <c r="F34" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="H34" t="n">
+        <v>146</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="K34" t="n">
+        <v>149</v>
+      </c>
+      <c r="L34" t="n">
+        <v>25</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="O34" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="C35" t="n">
+        <v>179</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>37987</v>
+      </c>
+      <c r="E35" t="n">
+        <v>18</v>
+      </c>
+      <c r="F35" t="n">
+        <v>16.29999923706055</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="H35" t="n">
+        <v>167</v>
+      </c>
+      <c r="I35" t="n">
+        <v>320</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="K35" t="n">
+        <v>168</v>
+      </c>
+      <c r="L35" t="n">
+        <v>320</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>2.038255038677446</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-20.38859145913349</v>
+      </c>
+      <c r="P35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="C36" t="n">
+        <v>179</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="E36" t="n">
+        <v>64</v>
+      </c>
+      <c r="F36" t="n">
+        <v>66.57499694824219</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="H36" t="n">
+        <v>167</v>
+      </c>
+      <c r="I36" t="n">
+        <v>320</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="K36" t="n">
+        <v>168</v>
+      </c>
+      <c r="L36" t="n">
+        <v>320</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>2.4604369228326</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-90.89296611304422</v>
+      </c>
+      <c r="P36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C37" t="n">
+        <v>223</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="E37" t="n">
+        <v>77</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.131764888763428</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>40848</v>
+      </c>
+      <c r="H37" t="n">
+        <v>112</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.72180700302124</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="K37" t="n">
+        <v>212</v>
+      </c>
+      <c r="L37" t="n">
+        <v>19.9379940032959</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1311440604073661</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-7.966327762603759</v>
+      </c>
+      <c r="P37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C38" t="n">
+        <v>216</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>40269</v>
+      </c>
+      <c r="E38" t="n">
+        <v>91</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2373.35009765625</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="H38" t="n">
+        <v>190</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11337</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="K38" t="n">
+        <v>205</v>
+      </c>
+      <c r="L38" t="n">
+        <v>12774.900390625</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>90.54191820549242</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-5865.96445904356</v>
+      </c>
+      <c r="P38" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C39" t="n">
+        <v>216</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E39" t="n">
+        <v>150</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7449</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>190</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11337</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="K39" t="n">
+        <v>205</v>
+      </c>
+      <c r="L39" t="n">
+        <v>12774.900390625</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-7131</v>
+      </c>
+      <c r="P39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C40" t="n">
+        <v>261</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="E40" t="n">
+        <v>173</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9399.9501953125</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="H40" t="n">
+        <v>206</v>
+      </c>
+      <c r="I40" t="n">
+        <v>13100</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="K40" t="n">
+        <v>250</v>
+      </c>
+      <c r="L40" t="n">
+        <v>17865.19921875</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>112.1227213541667</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-9997.280598958336</v>
+      </c>
+      <c r="P40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TRENT.NS</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>42309</v>
+      </c>
+      <c r="C41" t="n">
+        <v>160</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>39417</v>
+      </c>
+      <c r="E41" t="n">
+        <v>65</v>
+      </c>
+      <c r="F41" t="n">
+        <v>69.74099731445312</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>41275</v>
+      </c>
+      <c r="H41" t="n">
+        <v>126</v>
+      </c>
+      <c r="I41" t="n">
+        <v>135.8999938964844</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="K41" t="n">
+        <v>149</v>
+      </c>
+      <c r="L41" t="n">
+        <v>159.6000061035156</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1.084573714459529</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.7562941254162325</v>
+      </c>
+      <c r="P41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="C42" t="n">
+        <v>204</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E42" t="n">
+        <v>152</v>
+      </c>
+      <c r="F42" t="n">
+        <v>27990</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="H42" t="n">
+        <v>169</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25670.849609375</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="K42" t="n">
+        <v>193</v>
+      </c>
+      <c r="L42" t="n">
+        <v>22400</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>-136.4206112132353</v>
+      </c>
+      <c r="O42" t="n">
+        <v>48725.93290441176</v>
+      </c>
+      <c r="P42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C43" t="n">
+        <v>206</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="E43" t="n">
+        <v>72</v>
+      </c>
+      <c r="F43" t="n">
+        <v>171.1499938964844</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H43" t="n">
+        <v>133</v>
+      </c>
+      <c r="I43" t="n">
+        <v>595</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="K43" t="n">
+        <v>195</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1018.299987792969</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>6.948360755795338</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-329.13198052078</v>
+      </c>
+      <c r="P43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C44" t="n">
+        <v>219</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="E44" t="n">
+        <v>66</v>
+      </c>
+      <c r="F44" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="H44" t="n">
+        <v>153</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1099</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="K44" t="n">
+        <v>208</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1642.599975585938</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>9.615517101068606</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-372.1741164634968</v>
+      </c>
+      <c r="P44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C45" t="n">
+        <v>223</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="E45" t="n">
+        <v>133</v>
+      </c>
+      <c r="F45" t="n">
+        <v>595</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="H45" t="n">
+        <v>166</v>
+      </c>
+      <c r="I45" t="n">
+        <v>787.2000122070312</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="K45" t="n">
+        <v>212</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1065</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>5.824242794152462</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-179.6242916222774</v>
+      </c>
+      <c r="P45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C46" t="n">
+        <v>239</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="E46" t="n">
+        <v>66</v>
+      </c>
+      <c r="F46" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="H46" t="n">
+        <v>153</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1099</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="K46" t="n">
+        <v>228</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1823.400024414062</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>9.615517101068606</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-372.1741164634968</v>
+      </c>
+      <c r="P46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C47" t="n">
+        <v>239</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="E47" t="n">
+        <v>66</v>
+      </c>
+      <c r="F47" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H47" t="n">
+        <v>208</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1642.599975585938</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="K47" t="n">
+        <v>228</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1823.400024414062</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>9.719365939288073</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-379.0281397859817</v>
+      </c>
+      <c r="P47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C48" t="n">
+        <v>239</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="E48" t="n">
+        <v>153</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1099</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H48" t="n">
+        <v>208</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1642.599975585938</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="K48" t="n">
+        <v>228</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1823.400024414062</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>9.883635919744318</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-413.1962957208807</v>
+      </c>
+      <c r="P48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/three_line_alerts_1mo.xlsx
+++ b/excel/1mo/three_line_alerts_1mo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,6 +3349,846 @@
         <v>3</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C49" t="n">
+        <v>144</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="E49" t="n">
+        <v>77</v>
+      </c>
+      <c r="F49" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="H49" t="n">
+        <v>113</v>
+      </c>
+      <c r="I49" t="n">
+        <v>32.54999923706055</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="K49" t="n">
+        <v>133</v>
+      </c>
+      <c r="L49" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="O49" t="n">
+        <v>22.34861034817166</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C50" t="n">
+        <v>168</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="E50" t="n">
+        <v>77</v>
+      </c>
+      <c r="F50" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H50" t="n">
+        <v>133</v>
+      </c>
+      <c r="I50" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="K50" t="n">
+        <v>157</v>
+      </c>
+      <c r="L50" t="n">
+        <v>37</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0.09285715648106166</v>
+      </c>
+      <c r="O50" t="n">
+        <v>22.1499981880188</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C51" t="n">
+        <v>168</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E51" t="n">
+        <v>113</v>
+      </c>
+      <c r="F51" t="n">
+        <v>32.54999923706055</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H51" t="n">
+        <v>133</v>
+      </c>
+      <c r="I51" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="K51" t="n">
+        <v>157</v>
+      </c>
+      <c r="L51" t="n">
+        <v>37</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0.09750003814697265</v>
+      </c>
+      <c r="O51" t="n">
+        <v>21.53249492645264</v>
+      </c>
+      <c r="P51" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C52" t="n">
+        <v>218</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>40269</v>
+      </c>
+      <c r="E52" t="n">
+        <v>93</v>
+      </c>
+      <c r="F52" t="n">
+        <v>320</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H52" t="n">
+        <v>186</v>
+      </c>
+      <c r="I52" t="n">
+        <v>600</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="K52" t="n">
+        <v>207</v>
+      </c>
+      <c r="L52" t="n">
+        <v>666</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.010752688172043</v>
+      </c>
+      <c r="O52" t="n">
+        <v>40</v>
+      </c>
+      <c r="P52" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C53" t="n">
+        <v>150</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="E53" t="n">
+        <v>118</v>
+      </c>
+      <c r="F53" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>41061</v>
+      </c>
+      <c r="H53" t="n">
+        <v>119</v>
+      </c>
+      <c r="I53" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="K53" t="n">
+        <v>139</v>
+      </c>
+      <c r="L53" t="n">
+        <v>11.60000038146973</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="P53" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>39234</v>
+      </c>
+      <c r="C54" t="n">
+        <v>65</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>38108</v>
+      </c>
+      <c r="E54" t="n">
+        <v>28</v>
+      </c>
+      <c r="F54" t="n">
+        <v>25.20000076293945</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="H54" t="n">
+        <v>53</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>38899</v>
+      </c>
+      <c r="K54" t="n">
+        <v>54</v>
+      </c>
+      <c r="L54" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="O54" t="n">
+        <v>29.96000076293945</v>
+      </c>
+      <c r="P54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>JBMA.NS</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C55" t="n">
+        <v>113</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>39142</v>
+      </c>
+      <c r="E55" t="n">
+        <v>26</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="H55" t="n">
+        <v>101</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.309999942779541</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="K55" t="n">
+        <v>102</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.309999942779541</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0.04279999891916911</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.01279994805653883</v>
+      </c>
+      <c r="P55" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>JBMA.NS</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C56" t="n">
+        <v>113</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E56" t="n">
+        <v>83</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="H56" t="n">
+        <v>101</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4.309999942779541</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="K56" t="n">
+        <v>102</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4.309999942779541</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.01611110899183485</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5.937221950954861</v>
+      </c>
+      <c r="P56" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>41122</v>
+      </c>
+      <c r="C57" t="n">
+        <v>70</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>40664</v>
+      </c>
+      <c r="E57" t="n">
+        <v>55</v>
+      </c>
+      <c r="F57" t="n">
+        <v>13</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>40756</v>
+      </c>
+      <c r="H57" t="n">
+        <v>58</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="K57" t="n">
+        <v>59</v>
+      </c>
+      <c r="L57" t="n">
+        <v>13</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>13</v>
+      </c>
+      <c r="P57" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="C58" t="n">
+        <v>121</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="E58" t="n">
+        <v>29</v>
+      </c>
+      <c r="F58" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="H58" t="n">
+        <v>80</v>
+      </c>
+      <c r="I58" t="n">
+        <v>28.96500015258789</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="K58" t="n">
+        <v>110</v>
+      </c>
+      <c r="L58" t="n">
+        <v>27.26499938964844</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.04970587936102176</v>
+      </c>
+      <c r="O58" t="n">
+        <v>32.94147050146963</v>
+      </c>
+      <c r="P58" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="C59" t="n">
+        <v>131</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="E59" t="n">
+        <v>36</v>
+      </c>
+      <c r="F59" t="n">
+        <v>201.8000030517578</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>39203</v>
+      </c>
+      <c r="H59" t="n">
+        <v>58</v>
+      </c>
+      <c r="I59" t="n">
+        <v>182.3999938964844</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="K59" t="n">
+        <v>120</v>
+      </c>
+      <c r="L59" t="n">
+        <v>126.8499984741211</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.8818185979669745</v>
+      </c>
+      <c r="O59" t="n">
+        <v>233.5454725785689</v>
+      </c>
+      <c r="P59" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C60" t="n">
+        <v>197</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>40725</v>
+      </c>
+      <c r="E60" t="n">
+        <v>108</v>
+      </c>
+      <c r="F60" t="n">
+        <v>94.69999694824219</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="H60" t="n">
+        <v>156</v>
+      </c>
+      <c r="I60" t="n">
+        <v>117</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="K60" t="n">
+        <v>186</v>
+      </c>
+      <c r="L60" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0.4645833969116211</v>
+      </c>
+      <c r="O60" t="n">
+        <v>44.52499008178711</v>
+      </c>
+      <c r="P60" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C61" t="n">
+        <v>203</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>39203</v>
+      </c>
+      <c r="E61" t="n">
+        <v>58</v>
+      </c>
+      <c r="F61" t="n">
+        <v>182.3999938964844</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="H61" t="n">
+        <v>163</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1201.5</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="K61" t="n">
+        <v>192</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1490.900024414062</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>9.705714343843006</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-380.5314380464099</v>
+      </c>
+      <c r="P61" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PATELENG.NS</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="C62" t="n">
+        <v>212</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="E62" t="n">
+        <v>111</v>
+      </c>
+      <c r="F62" t="n">
+        <v>106.0840454101562</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H62" t="n">
+        <v>138</v>
+      </c>
+      <c r="I62" t="n">
+        <v>83.71588134765625</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="K62" t="n">
+        <v>201</v>
+      </c>
+      <c r="L62" t="n">
+        <v>31.8095645904541</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.8284505208333334</v>
+      </c>
+      <c r="O62" t="n">
+        <v>198.0420532226562</v>
+      </c>
+      <c r="P62" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/three_line_alerts_1mo.xlsx
+++ b/excel/1mo/three_line_alerts_1mo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,6 +1249,3546 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>COALINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C14" t="n">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="E14" t="n">
+        <v>21</v>
+      </c>
+      <c r="F14" t="n">
+        <v>386.25</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="H14" t="n">
+        <v>42</v>
+      </c>
+      <c r="I14" t="n">
+        <v>423.7000122070312</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="K14" t="n">
+        <v>56</v>
+      </c>
+      <c r="L14" t="n">
+        <v>447.1000061035156</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>1.783333914620536</v>
+      </c>
+      <c r="O14" t="n">
+        <v>348.7999877929688</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DIVISLAB.NS</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C15" t="n">
+        <v>159</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>38047</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>102.4000015258789</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="H15" t="n">
+        <v>57</v>
+      </c>
+      <c r="I15" t="n">
+        <v>482.4874877929688</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="K15" t="n">
+        <v>148</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1242.349975585938</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>8.26277144058891</v>
+      </c>
+      <c r="O15" t="n">
+        <v>11.50951567940086</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="C16" t="n">
+        <v>181</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>37956</v>
+      </c>
+      <c r="E16" t="n">
+        <v>17</v>
+      </c>
+      <c r="F16" t="n">
+        <v>302.5750122070312</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="H16" t="n">
+        <v>148</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2695</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="K16" t="n">
+        <v>170</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3120</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>18.26278616635854</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-7.892352621063992</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="C17" t="n">
+        <v>181</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="E17" t="n">
+        <v>55</v>
+      </c>
+      <c r="F17" t="n">
+        <v>843.7999877929688</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="H17" t="n">
+        <v>148</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2695</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="K17" t="n">
+        <v>170</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3120</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>19.90537647534442</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-250.9957183509744</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="C18" t="n">
+        <v>198</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="E18" t="n">
+        <v>55</v>
+      </c>
+      <c r="F18" t="n">
+        <v>843.7999877929688</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="H18" t="n">
+        <v>148</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2695</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="K18" t="n">
+        <v>187</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3468.35009765625</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>19.90537647534442</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-250.9957183509744</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="C19" t="n">
+        <v>198</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="E19" t="n">
+        <v>55</v>
+      </c>
+      <c r="F19" t="n">
+        <v>843.7999877929688</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H19" t="n">
+        <v>170</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3120</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="K19" t="n">
+        <v>187</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3468.35009765625</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>19.79304358440897</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-244.8174093495245</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="C20" t="n">
+        <v>198</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>41275</v>
+      </c>
+      <c r="E20" t="n">
+        <v>126</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2229</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H20" t="n">
+        <v>170</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3120</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="K20" t="n">
+        <v>187</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3468.35009765625</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-322.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="C21" t="n">
+        <v>198</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="E21" t="n">
+        <v>148</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2695</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H21" t="n">
+        <v>170</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3120</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="K21" t="n">
+        <v>187</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3468.35009765625</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>19.31818181818182</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-164.090909090909</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="C22" t="n">
+        <v>200</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>36465</v>
+      </c>
+      <c r="E22" t="n">
+        <v>46</v>
+      </c>
+      <c r="F22" t="n">
+        <v>109.4749984741211</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="H22" t="n">
+        <v>178</v>
+      </c>
+      <c r="I22" t="n">
+        <v>413.3500061035156</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>40817</v>
+      </c>
+      <c r="K22" t="n">
+        <v>189</v>
+      </c>
+      <c r="L22" t="n">
+        <v>438.6499938964844</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>2.302083391131777</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.57916248205936</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="C23" t="n">
+        <v>245</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>37987</v>
+      </c>
+      <c r="E23" t="n">
+        <v>96</v>
+      </c>
+      <c r="F23" t="n">
+        <v>27.48999977111816</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="H23" t="n">
+        <v>114</v>
+      </c>
+      <c r="I23" t="n">
+        <v>305.0499877929688</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="K23" t="n">
+        <v>234</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2162</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>15.41999933454725</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-1452.829936345418</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C24" t="n">
+        <v>221</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>39142</v>
+      </c>
+      <c r="E24" t="n">
+        <v>133</v>
+      </c>
+      <c r="F24" t="n">
+        <v>46.97499847412109</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="H24" t="n">
+        <v>191</v>
+      </c>
+      <c r="I24" t="n">
+        <v>76.34166717529297</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="K24" t="n">
+        <v>210</v>
+      </c>
+      <c r="L24" t="n">
+        <v>85.31666564941406</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0.5063218741581358</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-20.36581078891096</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="C25" t="n">
+        <v>241</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="E25" t="n">
+        <v>123</v>
+      </c>
+      <c r="F25" t="n">
+        <v>304</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>40148</v>
+      </c>
+      <c r="H25" t="n">
+        <v>167</v>
+      </c>
+      <c r="I25" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="K25" t="n">
+        <v>180</v>
+      </c>
+      <c r="L25" t="n">
+        <v>381</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>1.352272727272727</v>
+      </c>
+      <c r="O25" t="n">
+        <v>137.6704545454545</v>
+      </c>
+      <c r="P25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="C26" t="n">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>38991</v>
+      </c>
+      <c r="E26" t="n">
+        <v>38</v>
+      </c>
+      <c r="F26" t="n">
+        <v>990.7000122070312</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="H26" t="n">
+        <v>50</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1248</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="K26" t="n">
+        <v>73</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1737.300048828125</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>21.44166564941406</v>
+      </c>
+      <c r="O26" t="n">
+        <v>175.9167175292969</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="C27" t="n">
+        <v>163</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>40238</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92</v>
+      </c>
+      <c r="F27" t="n">
+        <v>461.0576171875</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="H27" t="n">
+        <v>123</v>
+      </c>
+      <c r="I27" t="n">
+        <v>541.6038208007812</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="K27" t="n">
+        <v>152</v>
+      </c>
+      <c r="L27" t="n">
+        <v>621.0467529296875</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>2.598264632686492</v>
+      </c>
+      <c r="O27" t="n">
+        <v>222.0172709803427</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="C28" t="n">
+        <v>206</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>37987</v>
+      </c>
+      <c r="E28" t="n">
+        <v>61</v>
+      </c>
+      <c r="F28" t="n">
+        <v>35.86000061035156</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="H28" t="n">
+        <v>109</v>
+      </c>
+      <c r="I28" t="n">
+        <v>258.2999877929688</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="K28" t="n">
+        <v>195</v>
+      </c>
+      <c r="L28" t="n">
+        <v>654.9000244140625</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>4.634166399637858</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-246.8241497675578</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="C29" t="n">
+        <v>188</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="E29" t="n">
+        <v>45</v>
+      </c>
+      <c r="F29" t="n">
+        <v>66.84999847412109</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>38749</v>
+      </c>
+      <c r="H29" t="n">
+        <v>121</v>
+      </c>
+      <c r="I29" t="n">
+        <v>107.8000030517578</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="K29" t="n">
+        <v>177</v>
+      </c>
+      <c r="L29" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0.5388158497057463</v>
+      </c>
+      <c r="O29" t="n">
+        <v>42.60328523736251</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="C30" t="n">
+        <v>232</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>38838</v>
+      </c>
+      <c r="E30" t="n">
+        <v>124</v>
+      </c>
+      <c r="F30" t="n">
+        <v>168.2111053466797</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="H30" t="n">
+        <v>176</v>
+      </c>
+      <c r="I30" t="n">
+        <v>245.4333343505859</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="K30" t="n">
+        <v>221</v>
+      </c>
+      <c r="L30" t="n">
+        <v>314.5666809082031</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>1.485042865459736</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-15.93420997032754</v>
+      </c>
+      <c r="P30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C31" t="n">
+        <v>245</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="E31" t="n">
+        <v>123</v>
+      </c>
+      <c r="F31" t="n">
+        <v>541.6038208007812</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="H31" t="n">
+        <v>184</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1294.851440429688</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="K31" t="n">
+        <v>234</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1922.157104492188</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>12.34832163326076</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-977.2397400902919</v>
+      </c>
+      <c r="P31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="C32" t="n">
+        <v>256</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>37681</v>
+      </c>
+      <c r="E32" t="n">
+        <v>86</v>
+      </c>
+      <c r="F32" t="n">
+        <v>139.6499938964844</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="H32" t="n">
+        <v>180</v>
+      </c>
+      <c r="I32" t="n">
+        <v>437.375</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="K32" t="n">
+        <v>245</v>
+      </c>
+      <c r="L32" t="n">
+        <v>639.6500244140625</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>3.16728729897357</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-132.7367138152426</v>
+      </c>
+      <c r="P32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C33" t="n">
+        <v>238</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="E33" t="n">
+        <v>99</v>
+      </c>
+      <c r="F33" t="n">
+        <v>146.4666595458984</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="H33" t="n">
+        <v>181</v>
+      </c>
+      <c r="I33" t="n">
+        <v>601.6666870117188</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="K33" t="n">
+        <v>227</v>
+      </c>
+      <c r="L33" t="n">
+        <v>864.7000122070312</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>5.55121984714415</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-403.1041053213725</v>
+      </c>
+      <c r="P33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="C34" t="n">
+        <v>232</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>39203</v>
+      </c>
+      <c r="E34" t="n">
+        <v>136</v>
+      </c>
+      <c r="F34" t="n">
+        <v>102.1500015258789</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="H34" t="n">
+        <v>177</v>
+      </c>
+      <c r="I34" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="K34" t="n">
+        <v>221</v>
+      </c>
+      <c r="L34" t="n">
+        <v>177.1499938964844</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0.8926828896127096</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-19.2548714614496</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>37288</v>
+      </c>
+      <c r="C35" t="n">
+        <v>69</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>35796</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.602308034896851</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>36923</v>
+      </c>
+      <c r="H35" t="n">
+        <v>57</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>36951</v>
+      </c>
+      <c r="K35" t="n">
+        <v>58</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0.01311721672882905</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.33996370032027</v>
+      </c>
+      <c r="P35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>37316</v>
+      </c>
+      <c r="C36" t="n">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>35796</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.602308034896851</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>36951</v>
+      </c>
+      <c r="H36" t="n">
+        <v>58</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>36982</v>
+      </c>
+      <c r="K36" t="n">
+        <v>59</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0127720268149125</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.346867498598601</v>
+      </c>
+      <c r="P36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>40969</v>
+      </c>
+      <c r="C37" t="n">
+        <v>142</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>37347</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23</v>
+      </c>
+      <c r="F37" t="n">
+        <v>18.22681999206543</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>38838</v>
+      </c>
+      <c r="H37" t="n">
+        <v>72</v>
+      </c>
+      <c r="I37" t="n">
+        <v>98.73372650146484</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="K37" t="n">
+        <v>131</v>
+      </c>
+      <c r="L37" t="n">
+        <v>197.3600006103516</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>1.642998092028559</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-19.56213612459143</v>
+      </c>
+      <c r="P37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="C38" t="n">
+        <v>174</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>38261</v>
+      </c>
+      <c r="E38" t="n">
+        <v>27</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6.345333099365234</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H38" t="n">
+        <v>133</v>
+      </c>
+      <c r="I38" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="K38" t="n">
+        <v>163</v>
+      </c>
+      <c r="L38" t="n">
+        <v>185</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>1.324572329251271</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-29.4181197904191</v>
+      </c>
+      <c r="P38" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="C39" t="n">
+        <v>173</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="E39" t="n">
+        <v>78</v>
+      </c>
+      <c r="F39" t="n">
+        <v>167.5887298583984</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="H39" t="n">
+        <v>114</v>
+      </c>
+      <c r="I39" t="n">
+        <v>405.6719055175781</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="K39" t="n">
+        <v>162</v>
+      </c>
+      <c r="L39" t="n">
+        <v>718.0494995117188</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>6.613421546088325</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-348.2581507364908</v>
+      </c>
+      <c r="P39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="C40" t="n">
+        <v>204</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="E40" t="n">
+        <v>98</v>
+      </c>
+      <c r="F40" t="n">
+        <v>36.69642639160156</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H40" t="n">
+        <v>170</v>
+      </c>
+      <c r="I40" t="n">
+        <v>230.6666717529297</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="K40" t="n">
+        <v>193</v>
+      </c>
+      <c r="L40" t="n">
+        <v>291.5833435058594</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>2.694031185574002</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-227.3186297946506</v>
+      </c>
+      <c r="P40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C41" t="n">
+        <v>224</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E41" t="n">
+        <v>113</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21.31999969482422</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H41" t="n">
+        <v>133</v>
+      </c>
+      <c r="I41" t="n">
+        <v>40.40000152587891</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="K41" t="n">
+        <v>213</v>
+      </c>
+      <c r="L41" t="n">
+        <v>117.4000015258789</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0.9540000915527344</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-86.48201065063476</v>
+      </c>
+      <c r="P41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="C42" t="n">
+        <v>212</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="E42" t="n">
+        <v>142</v>
+      </c>
+      <c r="F42" t="n">
+        <v>39.29999923706055</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="H42" t="n">
+        <v>178</v>
+      </c>
+      <c r="I42" t="n">
+        <v>50.09999847412109</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="K42" t="n">
+        <v>201</v>
+      </c>
+      <c r="L42" t="n">
+        <v>57.09999847412109</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0.2999999788072374</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-3.299997753567162</v>
+      </c>
+      <c r="P42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C43" t="n">
+        <v>285</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="E43" t="n">
+        <v>195</v>
+      </c>
+      <c r="F43" t="n">
+        <v>51.03752517700195</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="H43" t="n">
+        <v>219</v>
+      </c>
+      <c r="I43" t="n">
+        <v>48.7593994140625</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="K43" t="n">
+        <v>274</v>
+      </c>
+      <c r="L43" t="n">
+        <v>43.33333206176758</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.09492190678914388</v>
+      </c>
+      <c r="O43" t="n">
+        <v>69.54729700088501</v>
+      </c>
+      <c r="P43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C44" t="n">
+        <v>161</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="E44" t="n">
+        <v>67</v>
+      </c>
+      <c r="F44" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H44" t="n">
+        <v>125</v>
+      </c>
+      <c r="I44" t="n">
+        <v>273.8500061035156</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="K44" t="n">
+        <v>150</v>
+      </c>
+      <c r="L44" t="n">
+        <v>266.5499877929688</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.2655171361462823</v>
+      </c>
+      <c r="O44" t="n">
+        <v>307.0396481218009</v>
+      </c>
+      <c r="P44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="C45" t="n">
+        <v>160</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E45" t="n">
+        <v>121</v>
+      </c>
+      <c r="F45" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="H45" t="n">
+        <v>146</v>
+      </c>
+      <c r="I45" t="n">
+        <v>25</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="K45" t="n">
+        <v>149</v>
+      </c>
+      <c r="L45" t="n">
+        <v>25</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="O45" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="P45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="C46" t="n">
+        <v>179</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>37987</v>
+      </c>
+      <c r="E46" t="n">
+        <v>18</v>
+      </c>
+      <c r="F46" t="n">
+        <v>16.29999923706055</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="H46" t="n">
+        <v>167</v>
+      </c>
+      <c r="I46" t="n">
+        <v>320</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="K46" t="n">
+        <v>168</v>
+      </c>
+      <c r="L46" t="n">
+        <v>320</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>2.038255038677446</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-20.38859145913349</v>
+      </c>
+      <c r="P46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="C47" t="n">
+        <v>179</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="E47" t="n">
+        <v>64</v>
+      </c>
+      <c r="F47" t="n">
+        <v>66.57499694824219</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="H47" t="n">
+        <v>167</v>
+      </c>
+      <c r="I47" t="n">
+        <v>320</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="K47" t="n">
+        <v>168</v>
+      </c>
+      <c r="L47" t="n">
+        <v>320</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>2.4604369228326</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-90.89296611304422</v>
+      </c>
+      <c r="P47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C48" t="n">
+        <v>223</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="E48" t="n">
+        <v>77</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.131764888763428</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>40848</v>
+      </c>
+      <c r="H48" t="n">
+        <v>112</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6.72180700302124</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="K48" t="n">
+        <v>212</v>
+      </c>
+      <c r="L48" t="n">
+        <v>19.9379940032959</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0.1311440604073661</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-7.966327762603759</v>
+      </c>
+      <c r="P48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C49" t="n">
+        <v>216</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>40269</v>
+      </c>
+      <c r="E49" t="n">
+        <v>91</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2373.35009765625</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="H49" t="n">
+        <v>190</v>
+      </c>
+      <c r="I49" t="n">
+        <v>11337</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="K49" t="n">
+        <v>205</v>
+      </c>
+      <c r="L49" t="n">
+        <v>12774.900390625</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>90.54191820549242</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-5865.96445904356</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C50" t="n">
+        <v>216</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E50" t="n">
+        <v>150</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7449</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="H50" t="n">
+        <v>190</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11337</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="K50" t="n">
+        <v>205</v>
+      </c>
+      <c r="L50" t="n">
+        <v>12774.900390625</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-7131</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C51" t="n">
+        <v>261</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="E51" t="n">
+        <v>173</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9399.9501953125</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="H51" t="n">
+        <v>206</v>
+      </c>
+      <c r="I51" t="n">
+        <v>13100</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="K51" t="n">
+        <v>250</v>
+      </c>
+      <c r="L51" t="n">
+        <v>17865.19921875</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>112.1227213541667</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-9997.280598958336</v>
+      </c>
+      <c r="P51" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="C52" t="n">
+        <v>121</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="E52" t="n">
+        <v>29</v>
+      </c>
+      <c r="F52" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="H52" t="n">
+        <v>80</v>
+      </c>
+      <c r="I52" t="n">
+        <v>28.96500015258789</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="K52" t="n">
+        <v>110</v>
+      </c>
+      <c r="L52" t="n">
+        <v>27.26499938964844</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.04970587936102176</v>
+      </c>
+      <c r="O52" t="n">
+        <v>32.94147050146963</v>
+      </c>
+      <c r="P52" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C53" t="n">
+        <v>144</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="E53" t="n">
+        <v>77</v>
+      </c>
+      <c r="F53" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="H53" t="n">
+        <v>113</v>
+      </c>
+      <c r="I53" t="n">
+        <v>32.54999923706055</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="K53" t="n">
+        <v>133</v>
+      </c>
+      <c r="L53" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="O53" t="n">
+        <v>22.34861034817166</v>
+      </c>
+      <c r="P53" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TRENT.NS</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>42309</v>
+      </c>
+      <c r="C54" t="n">
+        <v>160</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>39417</v>
+      </c>
+      <c r="E54" t="n">
+        <v>65</v>
+      </c>
+      <c r="F54" t="n">
+        <v>69.74099731445312</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>41275</v>
+      </c>
+      <c r="H54" t="n">
+        <v>126</v>
+      </c>
+      <c r="I54" t="n">
+        <v>135.8999938964844</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="K54" t="n">
+        <v>149</v>
+      </c>
+      <c r="L54" t="n">
+        <v>159.6000061035156</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>1.084573714459529</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.7562941254162325</v>
+      </c>
+      <c r="P54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="C55" t="n">
+        <v>204</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E55" t="n">
+        <v>152</v>
+      </c>
+      <c r="F55" t="n">
+        <v>27990</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="H55" t="n">
+        <v>169</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25670.849609375</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="K55" t="n">
+        <v>193</v>
+      </c>
+      <c r="L55" t="n">
+        <v>22400</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>-136.4206112132353</v>
+      </c>
+      <c r="O55" t="n">
+        <v>48725.93290441176</v>
+      </c>
+      <c r="P55" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C56" t="n">
+        <v>168</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="E56" t="n">
+        <v>77</v>
+      </c>
+      <c r="F56" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H56" t="n">
+        <v>133</v>
+      </c>
+      <c r="I56" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="K56" t="n">
+        <v>157</v>
+      </c>
+      <c r="L56" t="n">
+        <v>37</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0.09285715648106166</v>
+      </c>
+      <c r="O56" t="n">
+        <v>22.1499981880188</v>
+      </c>
+      <c r="P56" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C57" t="n">
+        <v>168</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E57" t="n">
+        <v>113</v>
+      </c>
+      <c r="F57" t="n">
+        <v>32.54999923706055</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H57" t="n">
+        <v>133</v>
+      </c>
+      <c r="I57" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="K57" t="n">
+        <v>157</v>
+      </c>
+      <c r="L57" t="n">
+        <v>37</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0.09750003814697265</v>
+      </c>
+      <c r="O57" t="n">
+        <v>21.53249492645264</v>
+      </c>
+      <c r="P57" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C58" t="n">
+        <v>150</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="E58" t="n">
+        <v>118</v>
+      </c>
+      <c r="F58" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>41061</v>
+      </c>
+      <c r="H58" t="n">
+        <v>119</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="K58" t="n">
+        <v>139</v>
+      </c>
+      <c r="L58" t="n">
+        <v>11.60000038146973</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="P58" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C59" t="n">
+        <v>218</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>40269</v>
+      </c>
+      <c r="E59" t="n">
+        <v>93</v>
+      </c>
+      <c r="F59" t="n">
+        <v>320</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H59" t="n">
+        <v>186</v>
+      </c>
+      <c r="I59" t="n">
+        <v>600</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="K59" t="n">
+        <v>207</v>
+      </c>
+      <c r="L59" t="n">
+        <v>666</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.010752688172043</v>
+      </c>
+      <c r="O59" t="n">
+        <v>40</v>
+      </c>
+      <c r="P59" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C60" t="n">
+        <v>219</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="E60" t="n">
+        <v>66</v>
+      </c>
+      <c r="F60" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="H60" t="n">
+        <v>153</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1099</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="K60" t="n">
+        <v>208</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1642.599975585938</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>9.615517101068606</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-372.1741164634968</v>
+      </c>
+      <c r="P60" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C61" t="n">
+        <v>223</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="E61" t="n">
+        <v>133</v>
+      </c>
+      <c r="F61" t="n">
+        <v>595</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="H61" t="n">
+        <v>166</v>
+      </c>
+      <c r="I61" t="n">
+        <v>787.2000122070312</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="K61" t="n">
+        <v>212</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1065</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>5.824242794152462</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-179.6242916222774</v>
+      </c>
+      <c r="P61" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C62" t="n">
+        <v>239</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="E62" t="n">
+        <v>66</v>
+      </c>
+      <c r="F62" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="H62" t="n">
+        <v>153</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1099</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="K62" t="n">
+        <v>228</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1823.400024414062</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>9.615517101068606</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-372.1741164634968</v>
+      </c>
+      <c r="P62" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C63" t="n">
+        <v>239</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="E63" t="n">
+        <v>66</v>
+      </c>
+      <c r="F63" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H63" t="n">
+        <v>208</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1642.599975585938</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="K63" t="n">
+        <v>228</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1823.400024414062</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>9.719365939288073</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-379.0281397859817</v>
+      </c>
+      <c r="P63" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C64" t="n">
+        <v>239</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="E64" t="n">
+        <v>153</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1099</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H64" t="n">
+        <v>208</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1642.599975585938</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="K64" t="n">
+        <v>228</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1823.400024414062</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>9.883635919744318</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-413.1962957208807</v>
+      </c>
+      <c r="P64" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>41122</v>
+      </c>
+      <c r="C65" t="n">
+        <v>70</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>40664</v>
+      </c>
+      <c r="E65" t="n">
+        <v>55</v>
+      </c>
+      <c r="F65" t="n">
+        <v>13</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>40756</v>
+      </c>
+      <c r="H65" t="n">
+        <v>58</v>
+      </c>
+      <c r="I65" t="n">
+        <v>13</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="K65" t="n">
+        <v>59</v>
+      </c>
+      <c r="L65" t="n">
+        <v>13</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>13</v>
+      </c>
+      <c r="P65" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>39234</v>
+      </c>
+      <c r="C66" t="n">
+        <v>65</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>38108</v>
+      </c>
+      <c r="E66" t="n">
+        <v>28</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25.20000076293945</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="H66" t="n">
+        <v>53</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>38899</v>
+      </c>
+      <c r="K66" t="n">
+        <v>54</v>
+      </c>
+      <c r="L66" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="O66" t="n">
+        <v>29.96000076293945</v>
+      </c>
+      <c r="P66" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="C67" t="n">
+        <v>131</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="E67" t="n">
+        <v>36</v>
+      </c>
+      <c r="F67" t="n">
+        <v>201.8000030517578</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>39203</v>
+      </c>
+      <c r="H67" t="n">
+        <v>58</v>
+      </c>
+      <c r="I67" t="n">
+        <v>182.3999938964844</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="K67" t="n">
+        <v>120</v>
+      </c>
+      <c r="L67" t="n">
+        <v>126.8499984741211</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.8818185979669745</v>
+      </c>
+      <c r="O67" t="n">
+        <v>233.5454725785689</v>
+      </c>
+      <c r="P67" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>JBMA.NS</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C68" t="n">
+        <v>113</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>39142</v>
+      </c>
+      <c r="E68" t="n">
+        <v>26</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="H68" t="n">
+        <v>101</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4.309999942779541</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="K68" t="n">
+        <v>102</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4.309999942779541</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0.04279999891916911</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-0.01279994805653883</v>
+      </c>
+      <c r="P68" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>JBMA.NS</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C69" t="n">
+        <v>113</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E69" t="n">
+        <v>83</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="H69" t="n">
+        <v>101</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.309999942779541</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="K69" t="n">
+        <v>102</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4.309999942779541</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.01611110899183485</v>
+      </c>
+      <c r="O69" t="n">
+        <v>5.937221950954861</v>
+      </c>
+      <c r="P69" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C70" t="n">
+        <v>197</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>40725</v>
+      </c>
+      <c r="E70" t="n">
+        <v>108</v>
+      </c>
+      <c r="F70" t="n">
+        <v>94.69999694824219</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="H70" t="n">
+        <v>156</v>
+      </c>
+      <c r="I70" t="n">
+        <v>117</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="K70" t="n">
+        <v>186</v>
+      </c>
+      <c r="L70" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0.4645833969116211</v>
+      </c>
+      <c r="O70" t="n">
+        <v>44.52499008178711</v>
+      </c>
+      <c r="P70" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C71" t="n">
+        <v>203</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>39203</v>
+      </c>
+      <c r="E71" t="n">
+        <v>58</v>
+      </c>
+      <c r="F71" t="n">
+        <v>182.3999938964844</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="H71" t="n">
+        <v>163</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1201.5</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="K71" t="n">
+        <v>192</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1490.900024414062</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>9.705714343843006</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-380.5314380464099</v>
+      </c>
+      <c r="P71" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PATELENG.NS</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="C72" t="n">
+        <v>212</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="E72" t="n">
+        <v>111</v>
+      </c>
+      <c r="F72" t="n">
+        <v>106.0840454101562</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H72" t="n">
+        <v>138</v>
+      </c>
+      <c r="I72" t="n">
+        <v>83.71588134765625</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="K72" t="n">
+        <v>201</v>
+      </c>
+      <c r="L72" t="n">
+        <v>31.8095645904541</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.8284505208333334</v>
+      </c>
+      <c r="O72" t="n">
+        <v>198.0420532226562</v>
+      </c>
+      <c r="P72" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/three_line_alerts_1mo.xlsx
+++ b/excel/1mo/three_line_alerts_1mo.xlsx
@@ -16,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +429,5627 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>stockname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>alert_date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rowNumber</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>row1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>value1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>date2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>row2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>value2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>date3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>row3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>value3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>buyORsell</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>window_size</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>percentage_value</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>pivot_line_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>588</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>530.0499877929688</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>-11.59000244140625</v>
+      </c>
+      <c r="O2" t="n">
+        <v>634.360009765625</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>530.0499877929688</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>597.3499755859375</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>9.614283970424108</v>
+      </c>
+      <c r="O3" t="n">
+        <v>443.5214320591518</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ZOMATO.NS</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>169</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>75.44999694824219</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>-7.795833587646484</v>
+      </c>
+      <c r="O4" t="n">
+        <v>192.3875007629395</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SBICARD.NS</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1028.650024414062</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>-12.39545232599436</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1375.722689541904</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZOMATO.NS</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40.59999847412109</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17</v>
+      </c>
+      <c r="I6" t="n">
+        <v>44.34999847412109</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="O6" t="n">
+        <v>33.72499847412109</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SBICARD.NS</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26</v>
+      </c>
+      <c r="F7" t="n">
+        <v>655.7000122070312</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="H7" t="n">
+        <v>33</v>
+      </c>
+      <c r="I7" t="n">
+        <v>695.5499877929688</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>5.692853655133929</v>
+      </c>
+      <c r="O7" t="n">
+        <v>507.6858171735491</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SBICARD.NS</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="H8" t="n">
+        <v>38</v>
+      </c>
+      <c r="I8" t="n">
+        <v>933</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>-11.04761904761905</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1352.809523809524</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SBICARD.NS</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1028.650024414062</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="H9" t="n">
+        <v>38</v>
+      </c>
+      <c r="I9" t="n">
+        <v>933</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>-9.565002441406204</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1296.470092773436</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AWL.NS</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>841.7000122070312</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>509</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>-41.58750152587891</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1091.225021362305</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AWL.NS</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
+        <v>327.25</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I11" t="n">
+        <v>285.7999877929688</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>-4.605556911892354</v>
+      </c>
+      <c r="O11" t="n">
+        <v>377.9111260308159</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AWL.NS</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>841.7000122070312</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21</v>
+      </c>
+      <c r="I12" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>-28.74666748046875</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1014.180017089844</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AWL.NS</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>509</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="H13" t="n">
+        <v>21</v>
+      </c>
+      <c r="I13" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>-14.07142857142857</v>
+      </c>
+      <c r="O13" t="n">
+        <v>706</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DCMSRIND.NS</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>125.9000015258789</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>94.55000305175781</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>-6.269999694824219</v>
+      </c>
+      <c r="O14" t="n">
+        <v>144.7100006103516</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DCMSRIND.NS</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>68.19999694824219</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H15" t="n">
+        <v>14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>59</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>-1.022221883138021</v>
+      </c>
+      <c r="O15" t="n">
+        <v>73.3111063639323</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PARAS.NS</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>560.7000122070312</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>523.1500244140625</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>-9.387496948242188</v>
+      </c>
+      <c r="O16" t="n">
+        <v>598.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PARAS.NS</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>758.7000122070312</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" t="n">
+        <v>811</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>10.45999755859375</v>
+      </c>
+      <c r="O17" t="n">
+        <v>695.9400268554688</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>242.6000061035156</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>296</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>13.3499984741211</v>
+      </c>
+      <c r="O18" t="n">
+        <v>202.5500106811523</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PARAS.NS</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>560.7000122070312</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" t="n">
+        <v>445.5499877929688</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>-8.857694185697111</v>
+      </c>
+      <c r="O19" t="n">
+        <v>596.1307889498197</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C20" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>242.6000061035156</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12</v>
+      </c>
+      <c r="I20" t="n">
+        <v>321</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>8.711110432942711</v>
+      </c>
+      <c r="O20" t="n">
+        <v>216.4666748046875</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>296</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="H21" t="n">
+        <v>12</v>
+      </c>
+      <c r="I21" t="n">
+        <v>321</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>261</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PARAS.NS</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>523.1500244140625</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H22" t="n">
+        <v>17</v>
+      </c>
+      <c r="I22" t="n">
+        <v>445.5499877929688</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>-8.622226291232634</v>
+      </c>
+      <c r="O22" t="n">
+        <v>592.1278347439236</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C23" t="n">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>191.8500061035156</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="H23" t="n">
+        <v>15</v>
+      </c>
+      <c r="I23" t="n">
+        <v>225.3999938964844</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>3.354998779296881</v>
+      </c>
+      <c r="O23" t="n">
+        <v>175.0750122070312</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C24" t="n">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="H24" t="n">
+        <v>12</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.270000076293946</v>
+      </c>
+      <c r="O24" t="n">
+        <v>24.14000053405762</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PARAS.NS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C25" t="n">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>758.7000122070312</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>848</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>5.252940458409927</v>
+      </c>
+      <c r="O25" t="n">
+        <v>727.1823694565717</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>242.6000061035156</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="H26" t="n">
+        <v>17</v>
+      </c>
+      <c r="I26" t="n">
+        <v>342.3999938964844</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>7.128570556640628</v>
+      </c>
+      <c r="O26" t="n">
+        <v>221.2142944335937</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C27" t="n">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>296</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="H27" t="n">
+        <v>17</v>
+      </c>
+      <c r="I27" t="n">
+        <v>342.3999938964844</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>4.639999389648438</v>
+      </c>
+      <c r="O27" t="n">
+        <v>263.5200042724609</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C28" t="n">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" t="n">
+        <v>321</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="H28" t="n">
+        <v>17</v>
+      </c>
+      <c r="I28" t="n">
+        <v>342.3999938964844</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>4.279998779296875</v>
+      </c>
+      <c r="O28" t="n">
+        <v>269.6400146484375</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21</v>
+      </c>
+      <c r="I29" t="n">
+        <v>37.09999847412109</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8230768350454474</v>
+      </c>
+      <c r="O29" t="n">
+        <v>19.81538493816669</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>191.8500061035156</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+      <c r="I30" t="n">
+        <v>229.4499969482422</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>2.685713631766185</v>
+      </c>
+      <c r="O30" t="n">
+        <v>178.4214379446847</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15</v>
+      </c>
+      <c r="F31" t="n">
+        <v>225.3999938964844</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H31" t="n">
+        <v>19</v>
+      </c>
+      <c r="I31" t="n">
+        <v>229.4499969482422</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>1.012500762939446</v>
+      </c>
+      <c r="O31" t="n">
+        <v>210.2124824523927</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C32" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E32" t="n">
+        <v>12</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H32" t="n">
+        <v>16</v>
+      </c>
+      <c r="I32" t="n">
+        <v>19.29999923706055</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.4000000953674299</v>
+      </c>
+      <c r="O32" t="n">
+        <v>25.70000076293943</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C33" t="n">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H33" t="n">
+        <v>35</v>
+      </c>
+      <c r="I33" t="n">
+        <v>192.8000030517578</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>6.162963090119539</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-22.90370510242604</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C34" t="n">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="E34" t="n">
+        <v>21</v>
+      </c>
+      <c r="F34" t="n">
+        <v>37.09999847412109</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H34" t="n">
+        <v>35</v>
+      </c>
+      <c r="I34" t="n">
+        <v>192.8000030517578</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>11.12142889840262</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-196.450008392334</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C35" t="n">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>242.6000061035156</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H35" t="n">
+        <v>25</v>
+      </c>
+      <c r="I35" t="n">
+        <v>936.4000244140625</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>31.53636446866122</v>
+      </c>
+      <c r="O35" t="n">
+        <v>147.9909126975319</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C36" t="n">
+        <v>29</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>296</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H36" t="n">
+        <v>25</v>
+      </c>
+      <c r="I36" t="n">
+        <v>936.4000244140625</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>35.57777913411459</v>
+      </c>
+      <c r="O36" t="n">
+        <v>46.95554606119788</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E37" t="n">
+        <v>19</v>
+      </c>
+      <c r="F37" t="n">
+        <v>229.4499969482422</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H37" t="n">
+        <v>28</v>
+      </c>
+      <c r="I37" t="n">
+        <v>612</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>42.50555589463976</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-578.1555650499132</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C38" t="n">
+        <v>38</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>296</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H38" t="n">
+        <v>34</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2484.699951171875</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>81.06296115451389</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-271.4407280815972</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C39" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12</v>
+      </c>
+      <c r="F39" t="n">
+        <v>321</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H39" t="n">
+        <v>34</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2484.699951171875</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>98.34999778053977</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-859.199973366477</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E40" t="n">
+        <v>17</v>
+      </c>
+      <c r="F40" t="n">
+        <v>342.3999938964844</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H40" t="n">
+        <v>34</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2484.699951171875</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>126.0176445456112</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-1799.899963378906</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C41" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25</v>
+      </c>
+      <c r="F41" t="n">
+        <v>936.4000244140625</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H41" t="n">
+        <v>34</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2484.699951171875</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>172.0333251953125</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-3364.43310546875</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>EASEMYTRIP.NS</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C42" t="n">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>44.85312652587891</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="H42" t="n">
+        <v>13</v>
+      </c>
+      <c r="I42" t="n">
+        <v>59.5625</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>1.838671684265136</v>
+      </c>
+      <c r="O42" t="n">
+        <v>35.65976810455323</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>EASEMYTRIP.NS</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C43" t="n">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>44.85312652587891</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H43" t="n">
+        <v>19</v>
+      </c>
+      <c r="I43" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>2.046205248151506</v>
+      </c>
+      <c r="O43" t="n">
+        <v>34.62210028512138</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>EASEMYTRIP.NS</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C44" t="n">
+        <v>23</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="E44" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" t="n">
+        <v>59.5625</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H44" t="n">
+        <v>19</v>
+      </c>
+      <c r="I44" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>2.322916666666667</v>
+      </c>
+      <c r="O44" t="n">
+        <v>29.36458333333334</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>POLICYBZR.NS</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="E45" t="n">
+        <v>11</v>
+      </c>
+      <c r="F45" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="H45" t="n">
+        <v>22</v>
+      </c>
+      <c r="I45" t="n">
+        <v>661.2999877929688</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>27.73636141690342</v>
+      </c>
+      <c r="O45" t="n">
+        <v>51.10003662109364</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>POWERINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C46" t="n">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="E46" t="n">
+        <v>23</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4042.60009765625</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="H46" t="n">
+        <v>29</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3915</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>-21.26668294270833</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4531.733805338542</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>EASEMYTRIP.NS</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C47" t="n">
+        <v>34</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E47" t="n">
+        <v>23</v>
+      </c>
+      <c r="F47" t="n">
+        <v>39.70000076293945</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="H47" t="n">
+        <v>28</v>
+      </c>
+      <c r="I47" t="n">
+        <v>37</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.5400001525878906</v>
+      </c>
+      <c r="O47" t="n">
+        <v>52.12000427246094</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>EASEMYTRIP.NS</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C48" t="n">
+        <v>34</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E48" t="n">
+        <v>23</v>
+      </c>
+      <c r="F48" t="n">
+        <v>39.70000076293945</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="H48" t="n">
+        <v>30</v>
+      </c>
+      <c r="I48" t="n">
+        <v>37</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.3857143947056362</v>
+      </c>
+      <c r="O48" t="n">
+        <v>48.57143184116909</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>EASEMYTRIP.NS</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28</v>
+      </c>
+      <c r="F49" t="n">
+        <v>37</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="H49" t="n">
+        <v>30</v>
+      </c>
+      <c r="I49" t="n">
+        <v>37</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>37</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C50" t="n">
+        <v>22</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H50" t="n">
+        <v>18</v>
+      </c>
+      <c r="I50" t="n">
+        <v>76</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.041666666666667</v>
+      </c>
+      <c r="O50" t="n">
+        <v>94.75</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>EASEMYTRIP.NS</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C51" t="n">
+        <v>38</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="E51" t="n">
+        <v>19</v>
+      </c>
+      <c r="F51" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="H51" t="n">
+        <v>34</v>
+      </c>
+      <c r="I51" t="n">
+        <v>54</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="O51" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C52" t="n">
+        <v>29</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="H52" t="n">
+        <v>25</v>
+      </c>
+      <c r="I52" t="n">
+        <v>71.90000152587891</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8736841302168997</v>
+      </c>
+      <c r="O52" t="n">
+        <v>93.74210478130139</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C53" t="n">
+        <v>29</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E53" t="n">
+        <v>18</v>
+      </c>
+      <c r="F53" t="n">
+        <v>76</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="H53" t="n">
+        <v>25</v>
+      </c>
+      <c r="I53" t="n">
+        <v>71.90000152587891</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.5857140677315849</v>
+      </c>
+      <c r="O53" t="n">
+        <v>86.54285321916853</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MTARTECH.NS</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C54" t="n">
+        <v>20</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2563.300048828125</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="H54" t="n">
+        <v>16</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1729.25</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>-119.1500069754464</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3635.650111607143</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MTARTECH.NS</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C55" t="n">
+        <v>24</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2563.300048828125</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H55" t="n">
+        <v>20</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1823.900024414062</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>-67.21818403764209</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3168.263705166904</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MTARTECH.NS</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C56" t="n">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="E56" t="n">
+        <v>16</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1729.25</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H56" t="n">
+        <v>20</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1823.900024414062</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>23.66250610351551</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1350.649902343752</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AETHER.NS</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C57" t="n">
+        <v>20</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>810</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="H57" t="n">
+        <v>16</v>
+      </c>
+      <c r="I57" t="n">
+        <v>778</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>-2.909090909090909</v>
+      </c>
+      <c r="O57" t="n">
+        <v>824.5454545454545</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LODHA.NS</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="C58" t="n">
+        <v>21</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12</v>
+      </c>
+      <c r="F58" t="n">
+        <v>407.1000061035156</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="H58" t="n">
+        <v>17</v>
+      </c>
+      <c r="I58" t="n">
+        <v>454</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>9.379998779296875</v>
+      </c>
+      <c r="O58" t="n">
+        <v>294.5400207519531</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MTARTECH.NS</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C59" t="n">
+        <v>27</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E59" t="n">
+        <v>15</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1205</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H59" t="n">
+        <v>23</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1473</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>702.5</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>LODHA.NS</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C60" t="n">
+        <v>24</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>769.5</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="H60" t="n">
+        <v>20</v>
+      </c>
+      <c r="I60" t="n">
+        <v>571</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>-15.26923076923077</v>
+      </c>
+      <c r="O60" t="n">
+        <v>876.3846153846154</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MTARTECH.NS</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C61" t="n">
+        <v>33</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2563.300048828125</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H61" t="n">
+        <v>29</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2920.35009765625</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>17.85250244140625</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2402.627526855469</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LODHA.NS</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C62" t="n">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12</v>
+      </c>
+      <c r="F62" t="n">
+        <v>407.1000061035156</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="H62" t="n">
+        <v>21</v>
+      </c>
+      <c r="I62" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>-5.733334011501736</v>
+      </c>
+      <c r="O62" t="n">
+        <v>475.9000142415364</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>LODHA.NS</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C63" t="n">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="E63" t="n">
+        <v>17</v>
+      </c>
+      <c r="F63" t="n">
+        <v>454</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="H63" t="n">
+        <v>21</v>
+      </c>
+      <c r="I63" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>-24.625</v>
+      </c>
+      <c r="O63" t="n">
+        <v>872.625</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MTARTECH.NS</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C64" t="n">
+        <v>33</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="E64" t="n">
+        <v>16</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1729.25</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H64" t="n">
+        <v>29</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2920.35009765625</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>91.62308443509616</v>
+      </c>
+      <c r="O64" t="n">
+        <v>263.2806490384614</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MTARTECH.NS</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C65" t="n">
+        <v>33</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="E65" t="n">
+        <v>20</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1823.900024414062</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H65" t="n">
+        <v>29</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2920.35009765625</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>121.8277859157987</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-612.655693901911</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C66" t="n">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="E66" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" t="n">
+        <v>50.70000076293945</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H66" t="n">
+        <v>12</v>
+      </c>
+      <c r="I66" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>1.674999872843425</v>
+      </c>
+      <c r="O66" t="n">
+        <v>40.65000152587891</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C67" t="n">
+        <v>21</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E67" t="n">
+        <v>13</v>
+      </c>
+      <c r="F67" t="n">
+        <v>33.59999847412109</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H67" t="n">
+        <v>17</v>
+      </c>
+      <c r="I67" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.2749996185302717</v>
+      </c>
+      <c r="O67" t="n">
+        <v>37.17499351501462</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C68" t="n">
+        <v>27</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6</v>
+      </c>
+      <c r="F68" t="n">
+        <v>50.70000076293945</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H68" t="n">
+        <v>23</v>
+      </c>
+      <c r="I68" t="n">
+        <v>49.90000152587891</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.04705877865061998</v>
+      </c>
+      <c r="O68" t="n">
+        <v>50.98235343484317</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C69" t="n">
+        <v>27</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12</v>
+      </c>
+      <c r="F69" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H69" t="n">
+        <v>23</v>
+      </c>
+      <c r="I69" t="n">
+        <v>49.90000152587891</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.9863634976473714</v>
+      </c>
+      <c r="O69" t="n">
+        <v>72.58636197176845</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C70" t="n">
+        <v>30</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E70" t="n">
+        <v>13</v>
+      </c>
+      <c r="F70" t="n">
+        <v>33.59999847412109</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H70" t="n">
+        <v>26</v>
+      </c>
+      <c r="I70" t="n">
+        <v>33.54999923706055</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.003846095158503059</v>
+      </c>
+      <c r="O70" t="n">
+        <v>33.64999771118163</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C71" t="n">
+        <v>30</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E71" t="n">
+        <v>17</v>
+      </c>
+      <c r="F71" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H71" t="n">
+        <v>26</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33.54999923706055</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0.1166665818956163</v>
+      </c>
+      <c r="O71" t="n">
+        <v>30.51666810777452</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C72" t="n">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="E72" t="n">
+        <v>6</v>
+      </c>
+      <c r="F72" t="n">
+        <v>50.70000076293945</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H72" t="n">
+        <v>36</v>
+      </c>
+      <c r="I72" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>4.473333104451498</v>
+      </c>
+      <c r="O72" t="n">
+        <v>23.86000213623046</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>DEVYANI.NS</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C73" t="n">
+        <v>15</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>198.8999938964844</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="H73" t="n">
+        <v>11</v>
+      </c>
+      <c r="I73" t="n">
+        <v>215</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>2.01250076293945</v>
+      </c>
+      <c r="O73" t="n">
+        <v>192.862491607666</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C74" t="n">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12</v>
+      </c>
+      <c r="F74" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H74" t="n">
+        <v>36</v>
+      </c>
+      <c r="I74" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>5.172916412353517</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-1.324996948242216</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C75" t="n">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="E75" t="n">
+        <v>23</v>
+      </c>
+      <c r="F75" t="n">
+        <v>49.90000152587891</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H75" t="n">
+        <v>36</v>
+      </c>
+      <c r="I75" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>10.38461479773888</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-188.9461388221154</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C76" t="n">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>444.25</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+      <c r="I76" t="n">
+        <v>382.7000122070312</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>-15.3874969482422</v>
+      </c>
+      <c r="O76" t="n">
+        <v>521.1874847412111</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>DEVYANI.NS</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C77" t="n">
+        <v>28</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>198.8999938964844</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H77" t="n">
+        <v>24</v>
+      </c>
+      <c r="I77" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>1.361905052548362</v>
+      </c>
+      <c r="O77" t="n">
+        <v>194.8142787388393</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C78" t="n">
+        <v>18</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>444.25</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H78" t="n">
+        <v>14</v>
+      </c>
+      <c r="I78" t="n">
+        <v>357.2000122070312</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>-9.672220865885421</v>
+      </c>
+      <c r="O78" t="n">
+        <v>492.6111043294271</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C79" t="n">
+        <v>18</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E79" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>382.7000122070312</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H79" t="n">
+        <v>14</v>
+      </c>
+      <c r="I79" t="n">
+        <v>357.2000122070312</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="O79" t="n">
+        <v>428.6000122070312</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C80" t="n">
+        <v>19</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="E80" t="n">
+        <v>6</v>
+      </c>
+      <c r="F80" t="n">
+        <v>685</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H80" t="n">
+        <v>15</v>
+      </c>
+      <c r="I80" t="n">
+        <v>500</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>-20.55555555555556</v>
+      </c>
+      <c r="O80" t="n">
+        <v>808.3333333333334</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C81" t="n">
+        <v>22</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E81" t="n">
+        <v>9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>382.7000122070312</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H81" t="n">
+        <v>18</v>
+      </c>
+      <c r="I81" t="n">
+        <v>342.0499877929688</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>-4.516669379340265</v>
+      </c>
+      <c r="O81" t="n">
+        <v>423.3500366210936</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C82" t="n">
+        <v>22</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="E82" t="n">
+        <v>14</v>
+      </c>
+      <c r="F82" t="n">
+        <v>357.2000122070312</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H82" t="n">
+        <v>18</v>
+      </c>
+      <c r="I82" t="n">
+        <v>342.0499877929688</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>-3.787506103515597</v>
+      </c>
+      <c r="O82" t="n">
+        <v>410.2250976562495</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C83" t="n">
+        <v>28</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6</v>
+      </c>
+      <c r="F83" t="n">
+        <v>685</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H83" t="n">
+        <v>24</v>
+      </c>
+      <c r="I83" t="n">
+        <v>543.25</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>-7.875</v>
+      </c>
+      <c r="O83" t="n">
+        <v>732.25</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C84" t="n">
+        <v>28</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15</v>
+      </c>
+      <c r="F84" t="n">
+        <v>500</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H84" t="n">
+        <v>24</v>
+      </c>
+      <c r="I84" t="n">
+        <v>543.25</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.805555555555555</v>
+      </c>
+      <c r="O84" t="n">
+        <v>427.9166666666667</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C85" t="n">
+        <v>33</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E85" t="n">
+        <v>18</v>
+      </c>
+      <c r="F85" t="n">
+        <v>342.0499877929688</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="H85" t="n">
+        <v>29</v>
+      </c>
+      <c r="I85" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>6.490911310369308</v>
+      </c>
+      <c r="O85" t="n">
+        <v>225.2135842063213</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>KSOLVES.NS</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C86" t="n">
+        <v>27</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E86" t="n">
+        <v>16</v>
+      </c>
+      <c r="F86" t="n">
+        <v>434</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="H86" t="n">
+        <v>23</v>
+      </c>
+      <c r="I86" t="n">
+        <v>519</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>12.14285714285714</v>
+      </c>
+      <c r="O86" t="n">
+        <v>239.7142857142857</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>KSOLVES.NS</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C87" t="n">
+        <v>39</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E87" t="n">
+        <v>16</v>
+      </c>
+      <c r="F87" t="n">
+        <v>434</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="H87" t="n">
+        <v>35</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1447</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>53.31578947368421</v>
+      </c>
+      <c r="O87" t="n">
+        <v>-419.0526315789475</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>KSOLVES.NS</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C88" t="n">
+        <v>39</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="E88" t="n">
+        <v>23</v>
+      </c>
+      <c r="F88" t="n">
+        <v>519</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="H88" t="n">
+        <v>35</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1447</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>77.33333333333333</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-1259.666666666667</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>KSOLVES.NS</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C89" t="n">
+        <v>44</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E89" t="n">
+        <v>16</v>
+      </c>
+      <c r="F89" t="n">
+        <v>434</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H89" t="n">
+        <v>40</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1467.400024414062</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>43.05833435058592</v>
+      </c>
+      <c r="O89" t="n">
+        <v>-254.9333496093745</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>KSOLVES.NS</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C90" t="n">
+        <v>44</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="E90" t="n">
+        <v>23</v>
+      </c>
+      <c r="F90" t="n">
+        <v>519</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H90" t="n">
+        <v>40</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1467.400024414062</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>55.78823673023894</v>
+      </c>
+      <c r="O90" t="n">
+        <v>-764.1294447954956</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>KSOLVES.NS</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C91" t="n">
+        <v>44</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E91" t="n">
+        <v>35</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1447</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H91" t="n">
+        <v>40</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1467.400024414062</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>4.080004882812409</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1304.199829101566</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SJS.NS</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C92" t="n">
+        <v>29</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15</v>
+      </c>
+      <c r="F92" t="n">
+        <v>377.6499938964844</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H92" t="n">
+        <v>25</v>
+      </c>
+      <c r="I92" t="n">
+        <v>552.0499877929688</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>17.43999938964844</v>
+      </c>
+      <c r="O92" t="n">
+        <v>116.0500030517578</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CAMS.NS</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="C93" t="n">
+        <v>27</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4067.39990234375</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="H93" t="n">
+        <v>23</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2690</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>-105.9538386418269</v>
+      </c>
+      <c r="O93" t="n">
+        <v>5126.93828876202</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel/1mo/three_line_alerts_1mo.xlsx
+++ b/excel/1mo/three_line_alerts_1mo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R339"/>
+  <dimension ref="A1:R343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20809,6 +20809,246 @@
         <v>2</v>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>INDIAMART.NS</t>
+        </is>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C340" t="n">
+        <v>51</v>
+      </c>
+      <c r="D340" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="E340" t="n">
+        <v>26</v>
+      </c>
+      <c r="F340" t="n">
+        <v>4855.35009765625</v>
+      </c>
+      <c r="G340" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H340" t="n">
+        <v>39</v>
+      </c>
+      <c r="I340" t="n">
+        <v>2457.5</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N340" t="n">
+        <v>-184.4500075120192</v>
+      </c>
+      <c r="O340" t="n">
+        <v>9651.05029296875</v>
+      </c>
+      <c r="P340" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>1</v>
+      </c>
+      <c r="R340" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>INDIAMART.NS</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C341" t="n">
+        <v>51</v>
+      </c>
+      <c r="D341" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="E341" t="n">
+        <v>26</v>
+      </c>
+      <c r="F341" t="n">
+        <v>4855.35009765625</v>
+      </c>
+      <c r="G341" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="H341" t="n">
+        <v>47</v>
+      </c>
+      <c r="I341" t="n">
+        <v>3335.550048828125</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N341" t="n">
+        <v>-72.37143089657738</v>
+      </c>
+      <c r="O341" t="n">
+        <v>6737.007300967261</v>
+      </c>
+      <c r="P341" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>1</v>
+      </c>
+      <c r="R341" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>INDIAMART.NS</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C342" t="n">
+        <v>57</v>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="E342" t="n">
+        <v>40</v>
+      </c>
+      <c r="F342" t="n">
+        <v>2043.5</v>
+      </c>
+      <c r="G342" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H342" t="n">
+        <v>53</v>
+      </c>
+      <c r="I342" t="n">
+        <v>2393.35009765625</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N342" t="n">
+        <v>26.91154597355769</v>
+      </c>
+      <c r="O342" t="n">
+        <v>967.0381610576922</v>
+      </c>
+      <c r="P342" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>1</v>
+      </c>
+      <c r="R342" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C343" t="n">
+        <v>189</v>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E343" t="n">
+        <v>177</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1893.712524414062</v>
+      </c>
+      <c r="G343" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="H343" t="n">
+        <v>185</v>
+      </c>
+      <c r="I343" t="n">
+        <v>1991.099975585938</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N343" t="n">
+        <v>12.17343139648449</v>
+      </c>
+      <c r="O343" t="n">
+        <v>-260.9848327636923</v>
+      </c>
+      <c r="P343" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>1</v>
+      </c>
+      <c r="R343" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
